--- a/state.xlsx
+++ b/state.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="123">
   <si>
     <t>city</t>
   </si>
@@ -40,141 +40,141 @@
     <t xml:space="preserve"> Ulaanbaatar</t>
   </si>
   <si>
+    <t xml:space="preserve"> Chengdu</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Wuhan</t>
   </si>
   <si>
+    <t xml:space="preserve"> Karachi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chongqing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kabul</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Dhaka</t>
   </si>
   <si>
-    <t xml:space="preserve"> Chengdu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chongqing</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Karachi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kabul</t>
+    <t xml:space="preserve"> Sarajevo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shanghai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Los Angeles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hangzhou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Belgrade</t>
   </si>
   <si>
     <t xml:space="preserve"> Yangon</t>
   </si>
   <si>
-    <t xml:space="preserve"> Shanghai</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hangzhou</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Bishkek</t>
   </si>
   <si>
-    <t xml:space="preserve"> Los Angeles</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Belgrade</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Krakow</t>
   </si>
   <si>
     <t xml:space="preserve"> Mumbai</t>
   </si>
   <si>
+    <t xml:space="preserve"> Salt Lake City</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zagreb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Milano</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> San Francisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kaohsiung</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kathmandu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dubai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tel Aviv-Yafo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Johannesburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> London</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Mexico City</t>
   </si>
   <si>
-    <t xml:space="preserve"> Kathmandu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sarajevo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kaohsiung</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> San Francisco</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Chiang Mai</t>
   </si>
   <si>
+    <t xml:space="preserve"> Tehran</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kyiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wroclaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ho Chi Minh City</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kuala Lumpur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amsterdam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Beijing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tokyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guangzhou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bangkok</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nagoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shenzhen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nur-Sultan</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Moscow</t>
   </si>
   <si>
-    <t xml:space="preserve"> Shenyang</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Phnom Penh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Zagreb</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Milano</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Salt Lake City</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nur-Sultan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Johannesburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bangkok</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tel Aviv-Yafo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ho Chi Minh City</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Beijing</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tehran</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wroclaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shenzhen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jerusalem</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kyiv</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Guangzhou</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nagoya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> London</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Singapore</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dubai</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tokyo</t>
+    <t xml:space="preserve"> Kuwait City</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lima</t>
   </si>
   <si>
     <t xml:space="preserve"> Taipei</t>
   </si>
   <si>
-    <t xml:space="preserve"> Santiago</t>
-  </si>
-  <si>
     <t xml:space="preserve">India </t>
   </si>
   <si>
@@ -190,10 +190,19 @@
     <t xml:space="preserve">China </t>
   </si>
   <si>
+    <t xml:space="preserve">Afghanistan </t>
+  </si>
+  <si>
     <t xml:space="preserve">Bangladesh </t>
   </si>
   <si>
-    <t xml:space="preserve">Afghanistan </t>
+    <t xml:space="preserve">Bosnia Herzegovina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia </t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar </t>
@@ -202,153 +211,150 @@
     <t xml:space="preserve">Kyrgyzstan </t>
   </si>
   <si>
-    <t xml:space="preserve">USA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia </t>
-  </si>
-  <si>
     <t xml:space="preserve">Poland </t>
   </si>
   <si>
+    <t xml:space="preserve">Croatia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Arab Emirates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom </t>
+  </si>
+  <si>
     <t xml:space="preserve">Mexico </t>
   </si>
   <si>
-    <t xml:space="preserve">Nepal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bosnia Herzegovina </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taiwan </t>
-  </si>
-  <si>
     <t xml:space="preserve">Thailand </t>
   </si>
   <si>
+    <t xml:space="preserve">Iran </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan </t>
+  </si>
+  <si>
     <t xml:space="preserve">Russia </t>
   </si>
   <si>
-    <t xml:space="preserve">Cambodia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore </t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Arab Emirates </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile </t>
+    <t xml:space="preserve">Kuwait </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru </t>
   </si>
   <si>
     <t xml:space="preserve"> 415 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 336 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 200 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 199 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 198 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 168 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 167 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 164 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 162 </t>
+    <t xml:space="preserve"> 354 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 219 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 204 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 166 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 160 </t>
   </si>
   <si>
     <t xml:space="preserve"> 157 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 135 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 132 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 128 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 115 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 112 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 105 </t>
+    <t xml:space="preserve"> 155 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 153 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 152 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 125 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 118 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 111 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 107 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 103 </t>
   </si>
   <si>
     <t xml:space="preserve"> 98 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 96 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95 </t>
+    <t xml:space="preserve"> 97 </t>
   </si>
   <si>
     <t xml:space="preserve"> 94 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 86 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 82 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 80 </t>
+    <t xml:space="preserve"> 93 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 88 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 84 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 81 </t>
   </si>
   <si>
     <t xml:space="preserve"> 79 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 78 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 76 </t>
+    <t xml:space="preserve"> 75 </t>
   </si>
   <si>
     <t xml:space="preserve"> 74 </t>
   </si>
   <si>
+    <t xml:space="preserve"> 72 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 71 </t>
   </si>
   <si>
@@ -358,7 +364,7 @@
     <t xml:space="preserve"> 69 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 68 </t>
+    <t xml:space="preserve"> 67 </t>
   </si>
   <si>
     <t xml:space="preserve"> 66 </t>
@@ -367,25 +373,16 @@
     <t xml:space="preserve"> 65 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 64 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 63 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 61 </t>
   </si>
   <si>
     <t xml:space="preserve"> 59 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 58 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 57 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 56 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 55 </t>
   </si>
 </sst>
 </file>
@@ -768,7 +765,7 @@
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -779,7 +776,7 @@
         <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -790,7 +787,7 @@
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -801,7 +798,7 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -812,7 +809,7 @@
         <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -823,7 +820,7 @@
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -831,7 +828,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>90</v>
@@ -842,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
         <v>91</v>
@@ -864,7 +861,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
         <v>92</v>
@@ -908,7 +905,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
         <v>96</v>
@@ -919,7 +916,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
         <v>97</v>
@@ -963,7 +960,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
         <v>101</v>
@@ -974,10 +971,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -985,10 +982,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -996,10 +993,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1007,7 +1004,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
         <v>104</v>
@@ -1018,7 +1015,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
         <v>105</v>
@@ -1029,7 +1026,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
         <v>106</v>
@@ -1040,7 +1037,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
         <v>107</v>
@@ -1051,7 +1048,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
         <v>108</v>
@@ -1087,7 +1084,7 @@
         <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1095,7 +1092,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
         <v>111</v>
@@ -1106,10 +1103,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1117,10 +1114,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1128,7 +1125,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
         <v>113</v>
@@ -1139,7 +1136,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
         <v>114</v>
@@ -1161,10 +1158,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1172,10 +1169,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1183,10 +1180,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1194,10 +1191,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1205,10 +1202,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1216,10 +1213,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1227,10 +1224,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1238,7 +1235,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
         <v>119</v>
@@ -1249,7 +1246,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
         <v>120</v>
@@ -1260,7 +1257,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
         <v>121</v>
@@ -1271,7 +1268,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
         <v>121</v>
@@ -1282,7 +1279,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
         <v>122</v>
@@ -1293,10 +1290,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1304,10 +1301,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
